--- a/TestFiles/sample1/words/word_1.xlsx
+++ b/TestFiles/sample1/words/word_1.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.14645105</v>
+        <v>0.69645105</v>
       </c>
       <c r="B2">
-        <v>0.3562764500000001</v>
+        <v>0.9062764500000001</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.3718355500000001</v>
+        <v>0.9218355500000001</v>
       </c>
       <c r="B3">
-        <v>0.4347581500000001</v>
+        <v>0.9847581500000001</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.5955076500000001</v>
+        <v>1.14550765</v>
       </c>
       <c r="B4">
-        <v>0.7145151500000002</v>
+        <v>1.26451515</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.8263269500000001</v>
+        <v>1.37632695</v>
       </c>
       <c r="B5">
-        <v>0.9489638499999997</v>
+        <v>1.49896385</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
